--- a/artfynd/A 39199-2022.xlsx
+++ b/artfynd/A 39199-2022.xlsx
@@ -680,7 +680,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>103037835</v>
+        <v>105475261</v>
       </c>
       <c r="B2" t="n">
         <v>103813</v>
@@ -720,7 +720,7 @@
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>Kalmar län, Sm</t>
+          <t>6320217,477, Sm</t>
         </is>
       </c>
       <c r="Q2" t="n">
@@ -730,7 +730,7 @@
         <v>6320217.195828799</v>
       </c>
       <c r="S2" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="T2" t="inlineStr">
         <is>
@@ -752,11 +752,6 @@
           <t>Mönsterås</t>
         </is>
       </c>
-      <c r="X2" t="inlineStr">
-        <is>
-          <t>529106FD-C999-4A36-866C-390AC9B76885</t>
-        </is>
-      </c>
       <c r="Y2" t="inlineStr">
         <is>
           <t>2011-11-25</t>
@@ -779,7 +774,7 @@
       </c>
       <c r="AC2" t="inlineStr">
         <is>
-          <t>Inventerare Åke Gunnarsson,</t>
+          <t>. Trädslag först skriver som -Ask.</t>
         </is>
       </c>
       <c r="AD2" t="b">
@@ -794,17 +789,17 @@
       <c r="AT2" t="inlineStr"/>
       <c r="AW2" t="inlineStr">
         <is>
-          <t>Thomas Johansson</t>
+          <t>Torbjörn Blixt</t>
         </is>
       </c>
       <c r="AX2" t="inlineStr">
         <is>
-          <t>Via Thomas Johansson</t>
+          <t>Via Torbjörn Blixt</t>
         </is>
       </c>
       <c r="AY2" t="inlineStr">
         <is>
-          <t>Trädportalen</t>
+          <t>Skyddsvärda träd</t>
         </is>
       </c>
     </row>
